--- a/assets/dataFiles/Four Days Tour Packages.xlsx
+++ b/assets/dataFiles/Four Days Tour Packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD360D9-A708-44FB-8CFF-8A11462707C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46F59AD-E66C-46A6-9131-00BF12CDC37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="8" xr2:uid="{43388695-FE6B-40D5-BC2C-4306443B2504}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43388695-FE6B-40D5-BC2C-4306443B2504}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="33">
   <si>
     <t>Four Days Tour Packages</t>
   </si>
@@ -160,6 +160,12 @@
 Day 2&lt;br&gt;BOTANICAL GARDEN, BOAT HOUSE(LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK, 6TH&amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; LAKE&lt;br&gt;
 Day 3&lt;br&gt;FROM OOTY TO KODAIKANAL SILVER CASCADE FALLS, LAKE, COAKERS'S WALK, GREEN VALLEY VIEW&lt;br&gt;
 Day 4&lt;br&gt;KURINJI ANDAVAR TEMPLE, PILLAR ROCKS, DOLPHIN NOSE, SHENBAGANAR MUSEUM &amp; DROP AT COIMBATORE&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>MAZDA NON A/C</t>
+  </si>
+  <si>
+    <t>COACH NON A/C</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -339,31 +345,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,6 +414,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,13 +764,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2789A3EB-87DF-429B-A222-603D92617D6B}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -739,32 +796,35 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="13"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -774,10 +834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10913340-47A5-498D-8436-9315E40C0401}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,134 +849,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="5">
+        <v>18200</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="5">
+        <v>18200</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="5">
+        <v>18200</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>22700</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5">
+        <v>25100</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5">
+        <v>28550</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
+      <c r="C10" s="9">
+        <v>29750</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
@@ -931,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C90347-CABB-4999-9EF5-CD51F32DED32}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,128 +1006,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="5">
+        <v>16350</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="5">
+        <v>16350</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="5">
+        <v>16350</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="5">
+        <v>20850</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="5">
+        <v>20850</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="5">
+        <v>27800</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="5">
+        <v>29400</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="9">
+        <v>30650</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1085,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B51BD5-7603-436E-82AC-20A1D3C33484}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,133 +1176,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="5">
+        <v>15630</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="5">
+        <v>15630</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="5">
+        <v>15630</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="5">
+        <v>20090</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="5">
+        <v>20090</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="5">
+        <v>26980</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="21">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="C10" s="23">
+        <v>28060</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C11" s="23">
+        <v>29290</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="23">
+        <v>32550</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9">
+        <v>32550</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
@@ -1240,7 +1360,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,144 +1372,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>16350</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <v>16350</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="5">
         <v>16350</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <v>20850</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>20850</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>27800</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>29400</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="9">
         <v>30650</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1410,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A969A5F-C045-49F8-914C-400C6DBC323F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,144 +1543,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>14800</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <v>14800</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="5">
         <v>14800</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <v>19900</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>19900</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>26400</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>28600</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="9">
         <v>29700</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1590,144 +1710,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>19850</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <v>19850</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="5">
         <v>19850</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <v>25750</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>25750</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>33450</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>36400</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="9">
         <v>37900</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1757,144 +1877,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>17450</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <v>17450</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="5">
         <v>17450</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <v>23050</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>23050</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>30300</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>32750</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="9">
         <v>34100</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1911,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D32221-9297-45D3-A0B6-8D1A4F83A340}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1924,144 +2044,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>14875</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <v>14875</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="5">
         <v>14875</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <v>19125</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>19125</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>25700</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>27125</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="9">
         <v>28250</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
     </row>

--- a/assets/dataFiles/Four Days Tour Packages.xlsx
+++ b/assets/dataFiles/Four Days Tour Packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46F59AD-E66C-46A6-9131-00BF12CDC37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE71C56-76E7-4A64-A559-9D27FBD10778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43388695-FE6B-40D5-BC2C-4306443B2504}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="8" xr2:uid="{43388695-FE6B-40D5-BC2C-4306443B2504}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="32">
   <si>
     <t>Four Days Tour Packages</t>
   </si>
@@ -99,12 +99,6 @@
     <t>INNOVA A/C</t>
   </si>
   <si>
-    <t>Day 1&lt;br&gt;FROM COIMBATORE TO OOTY CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 2&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO MUNNAR&lt;br&gt;
-Day 3&lt;br&gt;ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, CHINNAR WILDLIFE SANCTUARY, TOP STATION, TATA TEA MUSEUM, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS&lt;br&gt;
-Day 4&lt;br&gt;RAJAMALAI WILDLIFE SANCTUARY &amp; DROPPING TO COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
     <t>LOGAN / VERITO A/C (SEDAN)</t>
   </si>
   <si>
@@ -117,55 +111,139 @@
     <t xml:space="preserve">TRAVELLER A/C </t>
   </si>
   <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO COONOOR KETTI VALLEY VIEW, SIM'S PARK, DOLPHIN'S NOSE, LAMB'S ROCK,TEAGARDENS&lt;br&gt;
-Day 2&lt;br&gt;BOTANICAL GARDEN, BOAT HOUSE (LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK, 6TH &amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; LAKE AND BACK TO OOTY
-Day 3&lt;br&gt;FROM OOTY TO MYSORE PALACE, BRINDAVAN GARDENS, MYSORE ZOO, RAIL MUSEUM, ART GALLERY&lt;br&gt;
-Day 4&lt;br&gt;SRI RANGANATHA SWAMY TEMPLE, CHAMUNDI HILLS, DATTA PEETHAM, TIPU SULTAN FORT &amp; DROPPING TO  COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOGAN / VERITO A/C </t>
   </si>
   <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO OOTY&lt;br&gt;
-Day 2&lt;br&gt;OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO MYSORE, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;br&gt;
-Day 4&lt;br&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, AND PROCEED TO BANGALORE &amp; DROP AT BANGALORE CITY / AIRPORT&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;COIMBATORE TO COONOOR KETTI VALLEY VIEW, SIM'S PARK, DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, BOTANICAL GARDEN, BOAT HOUSE (LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK&lt;br&gt;
-Day 2&lt;br&gt;OOTY TO COORG ON THE WAY , 6TH &amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; PROCEED TO COORG&lt;br&gt;
-Day 3&lt;br&gt;COORG LOCAL SIGHTSEEING - ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;br&gt;
-Day 4&lt;br&gt;COORG TO MYSORE LOCAL SIGHTSEEING (IF TIME PERMITS) AND DROPPING AT MYSORE / COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM COIMBATORE TO OOTY CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;br&gt;
-Day 2&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING),  TO WAYANAD&lt;br&gt;
-Day 3&lt;br&gt;FROM OOTY TO WAYANAD ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, CHEMBRA PEAK, EDAKKAL CAVES, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;br&gt;
-Day 4&lt;br&gt;BEGUR WILDLIFE SANCTUARY, KANTHAPARA FALLS &amp; DROPPING TO COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM MYSORE TO OOTY, BOTANICAL GARDEN, OOTY LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;br&gt;
-Day 2&lt;br&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK, WAX MUSEUM &amp; BACK TO OOTY&lt;br&gt;
-Day 3&lt;br&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; BACK TO OOTY&lt;br&gt;
-Day 4&lt;br&gt;AFTER CHECKOUT THE HOTEL , OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM COIMBATORE TO COONOOR KETTI VALLEY VIEW, SIM'S PARK, DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS&lt;br&gt;
-Day 2&lt;br&gt; BOTANICAL GARDEN, BOAT HOUSE (LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK, 6TH &amp; 9TH MILE SHOOTING POINT, PYKARA FALLS &amp; LAKE&lt;br&gt;
-Day 3&lt;br&gt;FROM OOTY TO KODAIKANAL SILVER CASCADE FALLS, LAKE, COAKERS'S WALK, GREEN VALLEY VIEW&lt;br&gt;
-Day 4&lt;br&gt;KURINJI ANDAVAR TEMPLE, PILLAR ROCKS, DOLPHIN NOSE, SHENBAGANAR MUSEUM &amp; DROP AT COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;FROM COIMBATORE TO COONOOR KETTI VALLEY VIEW,SIM'S PARK, DOLPHIN'S NOSE,LAMB'S ROCK, TEA GARDENS&lt;br&gt;
-Day 2&lt;br&gt;BOTANICAL GARDEN, BOAT HOUSE(LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK, 6TH&amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; LAKE&lt;br&gt;
-Day 3&lt;br&gt;FROM OOTY TO KODAIKANAL SILVER CASCADE FALLS, LAKE, COAKERS'S WALK, GREEN VALLEY VIEW&lt;br&gt;
-Day 4&lt;br&gt;KURINJI ANDAVAR TEMPLE, PILLAR ROCKS, DOLPHIN NOSE, SHENBAGANAR MUSEUM &amp; DROP AT COIMBATORE&lt;br&gt;</t>
-  </si>
-  <si>
     <t>MAZDA NON A/C</t>
   </si>
   <si>
     <t>COACH NON A/C</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM MYSORE TO OOTY, BOTANICAL GARDEN, OOTY LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;NILGIRI MOUNTAIN RAILWAY.KETTI VALLEY VIEW, SIMS PARK, DOLPHIN'S NOSE, LAMB'S ROCK, WAX MUSEUM &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;AFTER CHECKOUT THE HOTEL , OOTY TO MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING AND PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM COIMBATORE TO COONOOR KETTI VALLEY VIEW, SIM'S PARK, DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;BOTANICAL GARDEN, BOAT HOUSE (LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK, 6TH &amp; 9TH MILE SHOOTING POINT, PYKARA FALLS &amp; LAKE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;FROM OOTY TO KODAIKANAL SILVER CASCADE FALLS, LAKE, COAKERS'S WALK, GREEN VALLEY VIEW&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KURINJI ANDAVAR TEMPLE, PILLAR ROCKS, DOLPHIN NOSE, SHENBAGANAR MUSEUM &amp; DROP AT COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM COIMBATORE TO OOTY CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;ECHO POINT, ELEPHANT LAKE, ROSE GARDEN, MATTUPETTY DAM, CHINNAR WILDLIFE SANCTUARY, TOP STATION, TATA TEA MUSEUM, RAJAMALAI WILDLIFE SANCTUARY, POWER HOUSE FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;RAJAMALAI WILDLIFE SANCTUARY &amp; DROPPING TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR KETTI VALLEY VIEW, SIM'S PARK, DOLPHIN'S NOSE, LAMB'S ROCK,TEAGARDENS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;&gt;BOTANICAL GARDEN, BOAT HOUSE (LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK, 6TH &amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; LAKE AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;FROM OOTY TO MYSORE PALACE, BRINDAVAN GARDENS, MYSORE ZOO, RAIL MUSEUM, ART GALLERY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;SRI RANGANATHA SWAMY TEMPLE, CHAMUNDI HILLS, DATTA PEETHAM, TIPU SULTAN FORT &amp; DROPPING TO  COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK AND PROCEEDING TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;&gt;OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO MYSORE, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, AND PROCEED TO BANGALORE &amp; DROP AT BANGALORE CITY / AIRPORT&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR KETTI VALLEY VIEW, SIM'S PARK, DOLPHIN'S NOSE, LAMB'S ROCK, TEAGARDENS, BOTANICAL GARDEN, BOAT HOUSE (LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;&gt;OOTY TO COORG ON THE WAY , 6TH &amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; PROCEED TO COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG TO MYSORE LOCAL SIGHTSEEING (IF TIME PERMITS) AND DROPPING AT MYSORE / COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;FROM COIMBATORE TO OOTY CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING),  TO WAYANAD&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;FROM OOTY TO WAYANAD ANANTHANATHA SWAMI TEMPLE, MUTHANGA WILDLIFE SANCTUARY, BANASURA DAM, CHEMBRA PEAK, EDAKKAL CAVES, KANTHAPARA FALLS, SOOCHIPARA FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;BEGUR WILDLIFE SANCTUARY, KANTHAPARA FALLS &amp; DROPPING TO COIMBATORE&lt;/p&gt;
+&lt;/div</t>
   </si>
 </sst>
 </file>
@@ -379,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -413,7 +491,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,24 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2789A3EB-87DF-429B-A222-603D92617D6B}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,35 +873,29 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10913340-47A5-498D-8436-9315E40C0401}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,20 +920,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -883,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>18200</v>
@@ -939,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5">
         <v>25100</v>
@@ -953,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5">
         <v>28550</v>
@@ -967,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>29750</v>
@@ -993,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C90347-CABB-4999-9EF5-CD51F32DED32}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,20 +1077,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1040,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>16350</v>
@@ -1110,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>27800</v>
@@ -1124,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>29400</v>
@@ -1138,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9">
         <v>30650</v>
@@ -1163,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B51BD5-7603-436E-82AC-20A1D3C33484}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,20 +1247,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1206,16 +1277,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>15630</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1229,7 +1300,7 @@
       <c r="C5" s="5">
         <v>15630</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1243,7 +1314,7 @@
       <c r="C6" s="5">
         <v>15630</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1257,7 +1328,7 @@
       <c r="C7" s="5">
         <v>20090</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1271,7 +1342,7 @@
       <c r="C8" s="5">
         <v>20090</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1280,54 +1351,54 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>26980</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16">
+        <v>28060</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="23">
-        <v>28060</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="C11" s="16">
         <v>29290</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="16">
         <v>32550</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1336,12 +1407,12 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9">
         <v>32550</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1359,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4EC07-EDAA-4500-A6B9-8F353EF8345F}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,20 +1443,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1406,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>16350</v>
@@ -1476,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>27800</v>
@@ -1490,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>29400</v>
@@ -1504,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9">
         <v>30650</v>
@@ -1531,7 +1602,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,20 +1614,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1577,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5">
         <v>14800</v>
@@ -1647,7 +1718,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>26400</v>
@@ -1661,7 +1732,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>28600</v>
@@ -1675,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9">
         <v>29700</v>
@@ -1698,7 +1769,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,20 +1781,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1744,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5">
         <v>19850</v>
@@ -1814,7 +1885,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>33450</v>
@@ -1828,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>36400</v>
@@ -1842,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9">
         <v>37900</v>
@@ -1865,7 +1936,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,20 +1948,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1911,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5">
         <v>17450</v>
@@ -1981,7 +2052,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>30300</v>
@@ -1995,7 +2066,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>32750</v>
@@ -2009,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9">
         <v>34100</v>
@@ -2031,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D32221-9297-45D3-A0B6-8D1A4F83A340}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,20 +2115,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2078,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5">
         <v>14875</v>
@@ -2148,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>25700</v>
@@ -2162,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>27125</v>
@@ -2176,7 +2247,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9">
         <v>28250</v>

--- a/assets/dataFiles/Four Days Tour Packages.xlsx
+++ b/assets/dataFiles/Four Days Tour Packages.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE71C56-76E7-4A64-A559-9D27FBD10778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3857D07B-D9A5-43ED-8F1B-92DA7A9AB40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="8" xr2:uid="{43388695-FE6B-40D5-BC2C-4306443B2504}"/>
   </bookViews>
@@ -35,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -162,7 +161,7 @@
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO MUNNAR&lt;/p&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), TO MUNNAR&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
@@ -180,7 +179,7 @@
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;&gt;BOTANICAL GARDEN, BOAT HOUSE (LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK, 6TH &amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; LAKE AND BACK TO OOTY&lt;/p&gt;
+&lt;p&gt;BOTANICAL GARDEN, BOAT HOUSE (LAKE), ROSE GARDEN, MUSEUM, DODDABETTA PEAK, 6TH &amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; LAKE AND BACK TO OOTY&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
@@ -198,7 +197,7 @@
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;&gt;OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING CENTENARY ROSE GARDEN, LAKE (BOAT HOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
@@ -216,7 +215,7 @@
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;&gt;OOTY TO COORG ON THE WAY , 6TH &amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; PROCEED TO COORG&lt;/p&gt;
+&lt;p&gt;OOTY TO COORG ON THE WAY , 6TH &amp; 9TH MILE SHOOTING  POINT, PYKARA FALLS &amp; PROCEED TO COORG&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
@@ -234,7 +233,7 @@
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING),  TO WAYANAD&lt;/p&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODAY SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING),  TO WAYANAD&lt;/p&gt;
 &lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
@@ -844,7 +843,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4EC07-EDAA-4500-A6B9-8F353EF8345F}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1601,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,7 +1768,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,7 +1935,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,7 +2102,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
